--- a/Result_data/KMeans_SVM_10.xlsx
+++ b/Result_data/KMeans_SVM_10.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$I$101</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -988,15 +991,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E101"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120:N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1030,7 +1063,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1047,7 +1080,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1064,7 +1097,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1080,8 +1113,23 @@
       <c r="E6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B3:B6)</f>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(C3:C6)</f>
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(D3:D6)</f>
+        <v>0.59749999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1115,7 +1163,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1132,7 +1180,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1149,7 +1197,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1165,8 +1213,23 @@
       <c r="E11">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(B8:B11)</f>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(C8:C11)</f>
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(D8:D11)</f>
+        <v>0.59749999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1200,7 +1263,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1217,7 +1280,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1234,7 +1297,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1250,8 +1313,23 @@
       <c r="E16">
         <v>400</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(B13:B16)</f>
+        <v>0.57525000000000004</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(C13:C16)</f>
+        <v>0.58724999999999994</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(D13:D16)</f>
+        <v>0.59424999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1285,7 +1363,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1302,7 +1380,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1319,7 +1397,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1335,8 +1413,23 @@
       <c r="E21">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B18:B21)</f>
+        <v>0.57525000000000004</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(C18:C21)</f>
+        <v>0.58724999999999994</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(D18:D21)</f>
+        <v>0.59424999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1370,7 +1463,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1387,7 +1480,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1404,7 +1497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1420,8 +1513,23 @@
       <c r="E26">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(B23:B26)</f>
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(C23:C26)</f>
+        <v>0.60024999999999995</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(D23:D26)</f>
+        <v>0.59750000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1455,7 +1563,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1472,7 +1580,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1489,7 +1597,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1505,8 +1613,23 @@
       <c r="E31">
         <v>400</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(B28:B31)</f>
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(C28:C31)</f>
+        <v>0.60024999999999995</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(D28:D31)</f>
+        <v>0.59750000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1540,7 +1663,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1557,7 +1680,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1574,7 +1697,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1590,8 +1713,23 @@
       <c r="E36">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(B33:B36)</f>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(C33:C36)</f>
+        <v>0.60400000000000009</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(D33:D36)</f>
+        <v>0.61149999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1607,8 +1745,11 @@
       <c r="E37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1624,8 +1765,11 @@
       <c r="E38">
         <v>400</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1641,8 +1785,11 @@
       <c r="E39">
         <v>400</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1658,8 +1805,11 @@
       <c r="E40">
         <v>400</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1675,8 +1825,23 @@
       <c r="E41">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE(B38:B41)</f>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(C38:C41)</f>
+        <v>0.60400000000000009</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(D38:D41)</f>
+        <v>0.61149999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1710,7 +1875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1727,7 +1892,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1744,7 +1909,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1760,8 +1925,23 @@
       <c r="E46">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(B43:B46)</f>
+        <v>0.57425000000000004</v>
+      </c>
+      <c r="H46">
+        <f>AVERAGE(C43:C46)</f>
+        <v>0.58400000000000007</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(D43:D46)</f>
+        <v>0.59324999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1777,8 +1957,11 @@
       <c r="E47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1794,8 +1977,11 @@
       <c r="E48">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1811,8 +1997,11 @@
       <c r="E49">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1828,8 +2017,11 @@
       <c r="E50">
         <v>400</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1845,8 +2037,23 @@
       <c r="E51">
         <v>400</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <f>AVERAGE(B48:B51)</f>
+        <v>0.57425000000000004</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(C48:C51)</f>
+        <v>0.58400000000000007</v>
+      </c>
+      <c r="I51">
+        <f>AVERAGE(D48:D51)</f>
+        <v>0.59324999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1880,7 +2087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1897,7 +2104,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1914,7 +2121,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1930,8 +2137,23 @@
       <c r="E56">
         <v>400</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f>AVERAGE(B53:B56)</f>
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="H56">
+        <f>AVERAGE(C53:C56)</f>
+        <v>0.57774999999999999</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(D53:D56)</f>
+        <v>0.5867500000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1947,8 +2169,11 @@
       <c r="E57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1964,8 +2189,11 @@
       <c r="E58">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1981,8 +2209,11 @@
       <c r="E59">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1998,8 +2229,11 @@
       <c r="E60">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2015,8 +2249,23 @@
       <c r="E61">
         <v>400</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <f>AVERAGE(B58:B61)</f>
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="H61">
+        <f>AVERAGE(C58:C61)</f>
+        <v>0.57774999999999999</v>
+      </c>
+      <c r="I61">
+        <f>AVERAGE(D58:D61)</f>
+        <v>0.5867500000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2050,7 +2299,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2067,7 +2316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2084,7 +2333,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2100,8 +2349,23 @@
       <c r="E66">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f>AVERAGE(B63:B66)</f>
+        <v>0.59075</v>
+      </c>
+      <c r="H66">
+        <f>AVERAGE(C63:C66)</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(D63:D66)</f>
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2117,8 +2381,11 @@
       <c r="E67" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2134,8 +2401,11 @@
       <c r="E68">
         <v>400</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2151,8 +2421,11 @@
       <c r="E69">
         <v>400</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2168,8 +2441,11 @@
       <c r="E70">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2185,8 +2461,20 @@
       <c r="E71">
         <v>400</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0.79025000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.79674999999999996</v>
+      </c>
+      <c r="I71">
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2202,8 +2490,20 @@
       <c r="E72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f>AVERAGE(B69:B72)</f>
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="H72">
+        <f>AVERAGE(C69:C72)</f>
+        <v>0.57166666666666666</v>
+      </c>
+      <c r="I72">
+        <f>AVERAGE(D69:D72)</f>
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2220,7 +2520,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2237,7 +2537,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2254,7 +2554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -2270,8 +2570,23 @@
       <c r="E76">
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f>AVERAGE(B73:B76)</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H76">
+        <f>AVERAGE(C73:C76)</f>
+        <v>0.64575000000000005</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(D73:D76)</f>
+        <v>0.65549999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2287,8 +2602,11 @@
       <c r="E77" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2304,8 +2622,11 @@
       <c r="E78">
         <v>400</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2321,8 +2642,11 @@
       <c r="E79">
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2338,8 +2662,11 @@
       <c r="E80">
         <v>400</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2355,8 +2682,23 @@
       <c r="E81">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <f>AVERAGE(B78:B81)</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H81">
+        <f>AVERAGE(C78:C81)</f>
+        <v>0.64575000000000005</v>
+      </c>
+      <c r="I81">
+        <f>AVERAGE(D78:D81)</f>
+        <v>0.65549999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2390,7 +2732,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2407,7 +2749,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2424,7 +2766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2440,8 +2782,23 @@
       <c r="E86">
         <v>400</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <f>AVERAGE(B83:B86)</f>
+        <v>0.55674999999999997</v>
+      </c>
+      <c r="H86">
+        <f>AVERAGE(C83:C86)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="I86">
+        <f>AVERAGE(D83:D86)</f>
+        <v>0.57625000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2457,8 +2814,11 @@
       <c r="E87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2474,8 +2834,11 @@
       <c r="E88">
         <v>400</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2491,8 +2854,11 @@
       <c r="E89">
         <v>400</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2508,8 +2874,11 @@
       <c r="E90">
         <v>400</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2525,8 +2894,23 @@
       <c r="E91">
         <v>400</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <f>AVERAGE(B88:B91)</f>
+        <v>0.55674999999999997</v>
+      </c>
+      <c r="H91">
+        <f>AVERAGE(C88:C91)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="I91">
+        <f>AVERAGE(D88:D91)</f>
+        <v>0.57625000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +2927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2560,7 +2944,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2577,7 +2961,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -2594,7 +2978,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2610,8 +2994,23 @@
       <c r="E96">
         <v>400</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f>AVERAGE(B93:B96)</f>
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="H96">
+        <f>AVERAGE(C93:C96)</f>
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="I96">
+        <f>AVERAGE(D93:D96)</f>
+        <v>0.65825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2627,8 +3026,11 @@
       <c r="E97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2644,8 +3046,11 @@
       <c r="E98">
         <v>400</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2661,8 +3066,11 @@
       <c r="E99">
         <v>400</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2678,8 +3086,11 @@
       <c r="E100">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2695,8 +3106,239 @@
       <c r="E101">
         <v>400</v>
       </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <f>AVERAGE(B98:B101)</f>
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="H101">
+        <f>AVERAGE(C98:C101)</f>
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="I101">
+        <f>AVERAGE(D98:D101)</f>
+        <v>0.65825</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H104">
+        <v>0.59749999999999992</v>
+      </c>
+      <c r="K104">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L104">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="M104">
+        <v>0.57525000000000004</v>
+      </c>
+      <c r="N104">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="O104">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="P104">
+        <v>0.57425000000000004</v>
+      </c>
+      <c r="Q104">
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="R104">
+        <v>0.59075</v>
+      </c>
+      <c r="S104">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="T104">
+        <v>0.55674999999999997</v>
+      </c>
+      <c r="U104">
+        <v>0.64649999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0.58724999999999994</v>
+      </c>
+      <c r="H105">
+        <v>0.59424999999999994</v>
+      </c>
+      <c r="K105">
+        <v>0.57525000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0.60024999999999995</v>
+      </c>
+      <c r="H106">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="K106">
+        <v>0.58350000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>0.60400000000000009</v>
+      </c>
+      <c r="H107">
+        <v>0.61149999999999993</v>
+      </c>
+      <c r="K107">
+        <v>0.59850000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>0.58400000000000007</v>
+      </c>
+      <c r="H108">
+        <v>0.59324999999999994</v>
+      </c>
+      <c r="K108">
+        <v>0.57425000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0.57774999999999999</v>
+      </c>
+      <c r="H109">
+        <v>0.5867500000000001</v>
+      </c>
+      <c r="K109">
+        <v>0.56700000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H110">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="K110">
+        <v>0.59075</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>0.64575000000000005</v>
+      </c>
+      <c r="H111">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="K111">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="H112">
+        <v>0.57625000000000004</v>
+      </c>
+      <c r="K112">
+        <v>0.55674999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="H113">
+        <v>0.65825</v>
+      </c>
+      <c r="K113">
+        <v>0.64649999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F117">
+        <v>0.58724999999999994</v>
+      </c>
+      <c r="G117">
+        <v>0.60024999999999995</v>
+      </c>
+      <c r="H117">
+        <v>0.60400000000000009</v>
+      </c>
+      <c r="I117">
+        <v>0.58400000000000007</v>
+      </c>
+      <c r="J117">
+        <v>0.57774999999999999</v>
+      </c>
+      <c r="K117">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="L117">
+        <v>0.64575000000000005</v>
+      </c>
+      <c r="M117">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="N117">
+        <v>0.64949999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>0.59749999999999992</v>
+      </c>
+      <c r="F120">
+        <v>0.59424999999999994</v>
+      </c>
+      <c r="G120">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="H120">
+        <v>0.61149999999999993</v>
+      </c>
+      <c r="I120">
+        <v>0.59324999999999994</v>
+      </c>
+      <c r="J120">
+        <v>0.5867500000000001</v>
+      </c>
+      <c r="K120">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="L120">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="M120">
+        <v>0.57625000000000004</v>
+      </c>
+      <c r="N120">
+        <v>0.65825</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I101" xr:uid="{7C2ABAEB-0F76-4E7A-B0EC-CAFA966033BC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2705,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9755F0-5FB9-4693-9FF8-4CD23A63424D}">
   <dimension ref="A1:A346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Result_data/KMeans_SVM_10.xlsx
+++ b/Result_data/KMeans_SVM_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -992,10 +992,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120:N120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,9 +1745,6 @@
       <c r="E37" t="s">
         <v>4</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1765,9 +1762,6 @@
       <c r="E38">
         <v>400</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1784,9 +1778,6 @@
       </c>
       <c r="E39">
         <v>400</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1805,9 +1796,6 @@
       <c r="E40">
         <v>400</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1957,9 +1945,6 @@
       <c r="E47" t="s">
         <v>4</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1977,9 +1962,6 @@
       <c r="E48">
         <v>400</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -1996,9 +1978,6 @@
       </c>
       <c r="E49">
         <v>400</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2017,9 +1996,6 @@
       <c r="E50">
         <v>400</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -2169,9 +2145,6 @@
       <c r="E57" t="s">
         <v>4</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -2189,9 +2162,6 @@
       <c r="E58">
         <v>400</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -2208,9 +2178,6 @@
       </c>
       <c r="E59">
         <v>400</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2229,9 +2196,6 @@
       <c r="E60">
         <v>400</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -2381,9 +2345,6 @@
       <c r="E67" t="s">
         <v>4</v>
       </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -2401,9 +2362,6 @@
       <c r="E68">
         <v>400</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -2420,9 +2378,6 @@
       </c>
       <c r="E69">
         <v>400</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2441,9 +2396,6 @@
       <c r="E70">
         <v>400</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -2602,9 +2554,6 @@
       <c r="E77" t="s">
         <v>4</v>
       </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -2622,9 +2571,6 @@
       <c r="E78">
         <v>400</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -2641,9 +2587,6 @@
       </c>
       <c r="E79">
         <v>400</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2662,9 +2605,6 @@
       <c r="E80">
         <v>400</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -2814,9 +2754,6 @@
       <c r="E87" t="s">
         <v>4</v>
       </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -2834,9 +2771,6 @@
       <c r="E88">
         <v>400</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -2853,9 +2787,6 @@
       </c>
       <c r="E89">
         <v>400</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2874,9 +2805,6 @@
       <c r="E90">
         <v>400</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -3010,7 +2938,7 @@
         <v>0.65825</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3026,11 +2954,8 @@
       <c r="E97" t="s">
         <v>4</v>
       </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3046,11 +2971,8 @@
       <c r="E98">
         <v>400</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3066,11 +2988,8 @@
       <c r="E99">
         <v>400</v>
       </c>
-      <c r="F99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3086,11 +3005,8 @@
       <c r="E100">
         <v>400</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3119,210 +3035,6 @@
       </c>
       <c r="I101">
         <f>AVERAGE(D98:D101)</f>
-        <v>0.65825</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E104">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="H104">
-        <v>0.59749999999999992</v>
-      </c>
-      <c r="K104">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="L104">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="M104">
-        <v>0.57525000000000004</v>
-      </c>
-      <c r="N104">
-        <v>0.58350000000000002</v>
-      </c>
-      <c r="O104">
-        <v>0.59850000000000003</v>
-      </c>
-      <c r="P104">
-        <v>0.57425000000000004</v>
-      </c>
-      <c r="Q104">
-        <v>0.56700000000000006</v>
-      </c>
-      <c r="R104">
-        <v>0.59075</v>
-      </c>
-      <c r="S104">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="T104">
-        <v>0.55674999999999997</v>
-      </c>
-      <c r="U104">
-        <v>0.64649999999999996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E105">
-        <v>0.58724999999999994</v>
-      </c>
-      <c r="H105">
-        <v>0.59424999999999994</v>
-      </c>
-      <c r="K105">
-        <v>0.57525000000000004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E106">
-        <v>0.60024999999999995</v>
-      </c>
-      <c r="H106">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="K106">
-        <v>0.58350000000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E107">
-        <v>0.60400000000000009</v>
-      </c>
-      <c r="H107">
-        <v>0.61149999999999993</v>
-      </c>
-      <c r="K107">
-        <v>0.59850000000000003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E108">
-        <v>0.58400000000000007</v>
-      </c>
-      <c r="H108">
-        <v>0.59324999999999994</v>
-      </c>
-      <c r="K108">
-        <v>0.57425000000000004</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E109">
-        <v>0.57774999999999999</v>
-      </c>
-      <c r="H109">
-        <v>0.5867500000000001</v>
-      </c>
-      <c r="K109">
-        <v>0.56700000000000006</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E110">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H110">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="K110">
-        <v>0.59075</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E111">
-        <v>0.64575000000000005</v>
-      </c>
-      <c r="H111">
-        <v>0.65549999999999997</v>
-      </c>
-      <c r="K111">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E112">
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="H112">
-        <v>0.57625000000000004</v>
-      </c>
-      <c r="K112">
-        <v>0.55674999999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E113">
-        <v>0.64949999999999997</v>
-      </c>
-      <c r="H113">
-        <v>0.65825</v>
-      </c>
-      <c r="K113">
-        <v>0.64649999999999996</v>
-      </c>
-    </row>
-    <row r="117" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E117">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="F117">
-        <v>0.58724999999999994</v>
-      </c>
-      <c r="G117">
-        <v>0.60024999999999995</v>
-      </c>
-      <c r="H117">
-        <v>0.60400000000000009</v>
-      </c>
-      <c r="I117">
-        <v>0.58400000000000007</v>
-      </c>
-      <c r="J117">
-        <v>0.57774999999999999</v>
-      </c>
-      <c r="K117">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="L117">
-        <v>0.64575000000000005</v>
-      </c>
-      <c r="M117">
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="N117">
-        <v>0.64949999999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E120">
-        <v>0.59749999999999992</v>
-      </c>
-      <c r="F120">
-        <v>0.59424999999999994</v>
-      </c>
-      <c r="G120">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="H120">
-        <v>0.61149999999999993</v>
-      </c>
-      <c r="I120">
-        <v>0.59324999999999994</v>
-      </c>
-      <c r="J120">
-        <v>0.5867500000000001</v>
-      </c>
-      <c r="K120">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="L120">
-        <v>0.65549999999999997</v>
-      </c>
-      <c r="M120">
-        <v>0.57625000000000004</v>
-      </c>
-      <c r="N120">
         <v>0.65825</v>
       </c>
     </row>
@@ -3347,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9755F0-5FB9-4693-9FF8-4CD23A63424D}">
   <dimension ref="A1:A346"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
